--- a/afccp/resources/shared/scrubbed/Value_Function_Builds.xlsx
+++ b/afccp/resources/shared/scrubbed/Value_Function_Builds.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Griffen Laird\Desktop\AFIT\THESIS\Main Directory\Data Processing Support\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffenlaird/Desktop/Coding Projects/afccp/afccp/resources/shared/scrubbed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E171A50-A368-4606-94DD-47A179A54F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8481048C-7581-D04B-8EB4-9F1A7359F3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6505F8F1-01DC-4F83-A455-03B626B40DC8}"/>
+    <workbookView xWindow="17400" yWindow="-21100" windowWidth="27620" windowHeight="21100" activeTab="4" xr2:uid="{6505F8F1-01DC-4F83-A455-03B626B40DC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Direct" sheetId="28" r:id="rId1"/>
     <sheet name="Balance" sheetId="34" r:id="rId2"/>
     <sheet name="Quota_Normal" sheetId="30" r:id="rId3"/>
     <sheet name="Quota_Over" sheetId="31" r:id="rId4"/>
-    <sheet name="Min Decreasing" sheetId="33" r:id="rId5"/>
-    <sheet name="Min Increasing" sheetId="32" r:id="rId6"/>
+    <sheet name="Quota_Direct" sheetId="36" r:id="rId5"/>
+    <sheet name="Min Decreasing" sheetId="33" r:id="rId6"/>
+    <sheet name="Min Increasing" sheetId="32" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="minus">#REF!</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="97">
   <si>
     <t>measure</t>
   </si>
@@ -305,6 +306,36 @@
   <si>
     <t>Rho3</t>
   </si>
+  <si>
+    <t>Real Target</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Rho1</t>
+  </si>
+  <si>
+    <t>"Target"</t>
+  </si>
+  <si>
+    <t>"Maximum"</t>
+  </si>
+  <si>
+    <t>"Actual"</t>
+  </si>
+  <si>
+    <t>Rho4</t>
+  </si>
+  <si>
+    <t>vf_string</t>
+  </si>
+  <si>
+    <t>Pref (Optional)</t>
+  </si>
 </sst>
 </file>
 
@@ -357,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -668,11 +699,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -712,21 +752,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,6 +800,21 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -801,6 +841,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2385,34 +2431,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.000000000000002</c:v>
+                  <c:v>42.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>111.99999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.999999999999993</c:v>
+                  <c:v>125.99999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.999999999999993</c:v>
+                  <c:v>139.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>#N/A</c:v>
@@ -2445,70 +2491,70 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>65</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>66</c:v>
+                  <c:v>184.8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>67</c:v>
+                  <c:v>187.6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>68</c:v>
+                  <c:v>190.4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>69</c:v>
+                  <c:v>193.2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>70</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>71</c:v>
+                  <c:v>198.8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>72</c:v>
+                  <c:v>201.6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>73</c:v>
+                  <c:v>204.4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>74</c:v>
+                  <c:v>207.2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>75</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>75</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>75.5</c:v>
+                  <c:v>211.4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>76</c:v>
+                  <c:v>212.8</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>76.5</c:v>
+                  <c:v>214.2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>77</c:v>
+                  <c:v>215.6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>77.5</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>78</c:v>
+                  <c:v>218.4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>78.5</c:v>
+                  <c:v>219.8</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>79</c:v>
+                  <c:v>221.2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>79.5</c:v>
+                  <c:v>222.6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>80</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2523,34 +2569,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4007012308088398E-3</c:v>
+                  <c:v>7.8013416127807424E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1656230956039607E-2</c:v>
+                  <c:v>2.9007586756404018E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3618577144224634E-2</c:v>
+                  <c:v>8.6652137580163068E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3341151752163881E-2</c:v>
+                  <c:v>2.4334627259407107E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5858180021243546E-2</c:v>
+                  <c:v>6.6928509242848546E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1294696961884326</c:v>
+                  <c:v>1.8271068464196655E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21786014324776093</c:v>
+                  <c:v>4.9743926808884682E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.36359135344116922</c:v>
+                  <c:v>0.13529602573691568</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.60386149949191226</c:v>
+                  <c:v>0.3678507416395127</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.999999999999999</c:v>
+                  <c:v>0.99999999999999822</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>#N/A</c:v>
@@ -2595,7 +2641,7 @@
                   <c:v>0.96186063171939784</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.93799112175645294</c:v>
+                  <c:v>0.93799112175645305</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.90467853707145096</c:v>
@@ -2613,7 +2659,7 @@
                   <c:v>0.5763731481701837</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.40000000000000041</c:v>
+                  <c:v>0.40000000000000036</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.4</c:v>
@@ -2640,13 +2686,13 @@
                   <c:v>9.4474308576898529E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.6624923824158428E-3</c:v>
+                  <c:v>4.6624923824158462E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.7602804923235391E-3</c:v>
+                  <c:v>1.7602804923235384E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.8075287683416878E-18</c:v>
+                  <c:v>3.0125479472361471E-18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2880,6 +2926,509 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Quota_Direct!$E$32:$E$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>107.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120.59999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>133.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>135.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>137.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>138.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>143.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>145.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>146.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>148.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>211.05</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>212.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>213.15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>214.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>215.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>216.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>217.35</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>218.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>219.45</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>220.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Quota_Direct!$F$32:$F$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4739242112172015E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.635380459021422E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3335811284356596E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5666636619989341E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2159233952015482E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5732058003219145E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6942645197396074E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7629512917083059E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18402887578676336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8999999999999968</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98646647185455938</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99816843631346686</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99975212498793775</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99996645394325601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99999546021312979</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99999938578487879</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99999991705324331</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9999999889525979</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9999999986831174</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99999999999999545</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99999999999986899</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99999999999632372</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99999999989694244</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99999999711112586</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9999999190201605</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.999997730003512</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99993636830993315</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99821630033263753</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.5592147911644626</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.32834767701923018</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.19195657728295784</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.11137978246250797</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.3776823940352986E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.565406645029081E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9039773696264618E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.2244231278137759E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.425734720915351E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.3925671933499095E-18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2151-4548-84B0-D163EC66AC41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1788596928"/>
+        <c:axId val="1788607328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1788596928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1788607328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1788607328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1788596928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
               <c:f>'Min Decreasing'!$E$33:$E$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -3334,7 +3883,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4077,6 +4626,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6658,6 +7247,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7349,6 +8454,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCA84767-00FF-164A-A287-532413ED25B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -7388,7 +8536,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7734,15 +8882,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -7774,7 +8922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -7809,7 +8957,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -7846,7 +8994,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -7883,7 +9031,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -7920,146 +9068,146 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K9" s="33" t="s">
+    <row r="8" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="35"/>
-    </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="51"/>
+    </row>
+    <row r="10" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K11" s="45" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K11" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="47"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K12" s="48" t="s">
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="42"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K12" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="50"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K13" s="51" t="s">
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="45"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K13" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="53"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K14" s="48" t="s">
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="48"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K14" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="50"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K15" s="48" t="s">
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="45"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K15" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="50"/>
-    </row>
-    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K16" s="42" t="s">
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="45"/>
+    </row>
+    <row r="16" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="44"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="39"/>
+    </row>
+    <row r="17" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L18" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="M18" s="36" t="s">
+      <c r="M18" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="N18" s="36"/>
-      <c r="O18" s="37"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N18" s="52"/>
+      <c r="O18" s="53"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L19" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="M19" s="38" t="s">
+      <c r="M19" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="38"/>
-      <c r="O19" s="39"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L20" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="38" t="s">
+      <c r="M20" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="39"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L21" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="M21" s="38" t="s">
+      <c r="M21" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="39"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N21" s="33"/>
+      <c r="O21" s="34"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L22" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="38" t="s">
+      <c r="M22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="38"/>
-      <c r="O22" s="39"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
+    </row>
+    <row r="23" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L23" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="M23" s="40" t="s">
+      <c r="M23" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="40"/>
-      <c r="O23" s="41"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N23" s="35"/>
+      <c r="O23" s="36"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -8079,7 +9227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -8103,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -8128,7 +9276,7 @@
         <v>2.2003506154044199E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -8153,7 +9301,7 @@
         <v>5.8281154780198035E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -8178,7 +9326,7 @@
         <v>1.1809288572112317E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -8203,7 +9351,7 @@
         <v>2.1670575876081941E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -8228,7 +9376,7 @@
         <v>3.7929090010621773E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -8253,7 +9401,7 @@
         <v>6.4734848094216257E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -8278,7 +9426,7 @@
         <v>0.10893007162388042</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -8303,7 +9451,7 @@
         <v>0.18179567672058453</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -8328,7 +9476,7 @@
         <v>0.30193074974595613</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -8353,7 +9501,7 @@
         <v>0.4999999999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <f>IF($A$3=2,2,)</f>
         <v>2</v>
@@ -8379,7 +9527,7 @@
         <v>0.69806925025404365</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" ref="A44:A52" si="8">IF($A$3=2,2,)</f>
         <v>2</v>
@@ -8405,7 +9553,7 @@
         <v>0.81820432327941539</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -8431,7 +9579,7 @@
         <v>0.89106992837611954</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -8457,7 +9605,7 @@
         <v>0.93526515190578374</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -8483,7 +9631,7 @@
         <v>0.96207090998937828</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -8509,7 +9657,7 @@
         <v>0.97832942412391799</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -8535,7 +9683,7 @@
         <v>0.98819071142788772</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -8561,7 +9709,7 @@
         <v>0.99417188452198024</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -8587,7 +9735,7 @@
         <v>0.99779964938459553</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -8613,7 +9761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <f>IF($A$4=3,3,)</f>
         <v>3</v>
@@ -8638,7 +9786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" ref="A54:A63" si="12">IF($A$4=3,3,)</f>
         <v>3</v>
@@ -8664,7 +9812,7 @@
         <v>0.99779964938459553</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -8690,7 +9838,7 @@
         <v>0.99417188452198024</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -8716,7 +9864,7 @@
         <v>0.98819071142788772</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -8742,7 +9890,7 @@
         <v>0.97832942412391799</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -8768,7 +9916,7 @@
         <v>0.96207090998937828</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -8794,7 +9942,7 @@
         <v>0.93526515190578374</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -8820,7 +9968,7 @@
         <v>0.89106992837611954</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -8846,7 +9994,7 @@
         <v>0.81820432327941539</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -8872,7 +10020,7 @@
         <v>0.69806925025404376</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -8898,7 +10046,7 @@
         <v>0.50000000000000033</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <f>IF($A$5=4,4,)</f>
         <v>4</v>
@@ -8924,7 +10072,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" ref="A65:A74" si="15">IF($A$5=4,4,)</f>
         <v>4</v>
@@ -8950,7 +10098,7 @@
         <v>0.30193074974595635</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -8976,7 +10124,7 @@
         <v>0.18179567672058461</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -9002,7 +10150,7 @@
         <v>0.10893007162388042</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -9028,7 +10176,7 @@
         <v>6.4734848094216257E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -9054,7 +10202,7 @@
         <v>3.7929090010621773E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -9080,7 +10228,7 @@
         <v>2.1670575876081941E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -9106,7 +10254,7 @@
         <v>1.1809288572112317E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -9132,7 +10280,7 @@
         <v>5.8281154780198061E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -9158,7 +10306,7 @@
         <v>2.2003506154044221E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -9186,6 +10334,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
     <mergeCell ref="M22:O22"/>
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="K16:P16"/>
@@ -9194,11 +10347,6 @@
     <mergeCell ref="K13:P13"/>
     <mergeCell ref="K14:P14"/>
     <mergeCell ref="K15:P15"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9209,17 +10357,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10439CAC-BFDA-4737-B904-A85B1158A9AD}">
   <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -9263,7 +10411,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -9312,7 +10460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -9358,7 +10506,7 @@
       </c>
       <c r="R3" s="31"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -9404,7 +10552,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -9447,76 +10595,76 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K9" s="33" t="s">
+    <row r="8" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="35"/>
-    </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="51"/>
+    </row>
+    <row r="10" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K11" s="45" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K11" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="47"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K12" s="48" t="s">
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="42"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K12" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="50"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K13" s="51" t="s">
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="45"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K13" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="53"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K14" s="48" t="s">
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="48"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K14" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="50"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K15" s="48" t="s">
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="45"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K15" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="50"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="45"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K16" s="54" t="s">
         <v>65</v>
       </c>
@@ -9526,7 +10674,7 @@
       <c r="O16" s="55"/>
       <c r="P16" s="56"/>
     </row>
-    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K17" s="57"/>
       <c r="L17" s="58"/>
       <c r="M17" s="58"/>
@@ -9534,88 +10682,88 @@
       <c r="O17" s="58"/>
       <c r="P17" s="59"/>
     </row>
-    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L19" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="36" t="s">
+      <c r="M19" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="36"/>
-      <c r="O19" s="37"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N19" s="52"/>
+      <c r="O19" s="53"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L20" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="M20" s="38" t="s">
+      <c r="M20" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="39"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L21" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="38" t="s">
+      <c r="M21" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="39"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N21" s="33"/>
+      <c r="O21" s="34"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L22" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="M22" s="38" t="s">
+      <c r="M22" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="N22" s="38"/>
-      <c r="O22" s="39"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L23" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="M23" s="38" t="s">
+      <c r="M23" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N23" s="38"/>
-      <c r="O23" s="39"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L24" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="M24" s="38" t="s">
+      <c r="M24" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="N24" s="38"/>
-      <c r="O24" s="39"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N24" s="33"/>
+      <c r="O24" s="34"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L25" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="M25" s="38" t="s">
+      <c r="M25" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="N25" s="38"/>
-      <c r="O25" s="39"/>
-    </row>
-    <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N25" s="33"/>
+      <c r="O25" s="34"/>
+    </row>
+    <row r="26" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L26" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="M26" s="40" t="s">
+      <c r="M26" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="N26" s="40"/>
-      <c r="O26" s="41"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N26" s="35"/>
+      <c r="O26" s="36"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -9635,7 +10783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -9659,7 +10807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -9684,7 +10832,7 @@
         <v>1.3956180104118903E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -9709,7 +10857,7 @@
         <v>3.8965680329880511E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -9734,7 +10882,7 @@
         <v>8.3782750393183378E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -9759,7 +10907,7 @@
         <v>1.6409502176716391E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -9784,7 +10932,7 @@
         <v>3.0801475869189746E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -9809,7 +10957,7 @@
         <v>5.6591919000891618E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -9834,7 +10982,7 @@
         <v>0.10280844017737228</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -9859,7 +11007,7 @@
         <v>0.18562853050108352</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -9884,7 +11032,7 @@
         <v>0.33404228356214882</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -9909,7 +11057,7 @@
         <v>0.59999999999999942</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <f>IF($A$3=2,2,)</f>
         <v>2</v>
@@ -9935,7 +11083,7 @@
         <v>0.75107777435743162</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" ref="A44:A52" si="8">IF($A$3=2,2,)</f>
         <v>2</v>
@@ -9961,7 +11109,7 @@
         <v>0.84561982975696293</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -9987,7 +11135,7 @@
         <v>0.90478273626114092</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -10013,7 +11161,7 @@
         <v>0.94180593711318705</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -10039,7 +11187,7 @@
         <v>0.96497446419077659</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -10065,7 +11213,7 @@
         <v>0.97947295796202305</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -10091,7 +11239,7 @@
         <v>0.9885458835274209</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -10117,7 +11265,7 @@
         <v>0.99422357526657956</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -10143,7 +11291,7 @@
         <v>0.99777658396840907</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -10169,7 +11317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <f>IF($A$4=3,3,)</f>
         <v>3</v>
@@ -10194,7 +11342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" ref="A54:A63" si="12">IF($A$4=3,3,)</f>
         <v>3</v>
@@ -10220,7 +11368,7 @@
         <v>0.99777658396840907</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -10246,7 +11394,7 @@
         <v>0.99422357526657956</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -10272,7 +11420,7 @@
         <v>0.9885458835274209</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -10298,7 +11446,7 @@
         <v>0.97947295796202305</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -10324,7 +11472,7 @@
         <v>0.96497446419077659</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -10350,7 +11498,7 @@
         <v>0.94180593711318705</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -10376,7 +11524,7 @@
         <v>0.90478273626114092</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -10402,7 +11550,7 @@
         <v>0.84561982975696293</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -10428,7 +11576,7 @@
         <v>0.75107777435743173</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -10454,7 +11602,7 @@
         <v>0.6000000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <f>IF($A$5=4,4,)</f>
         <v>4</v>
@@ -10480,7 +11628,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" ref="A65:A74" si="15">IF($A$5=4,4,)</f>
         <v>4</v>
@@ -10506,7 +11654,7 @@
         <v>0.33404228356214882</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -10532,7 +11680,7 @@
         <v>0.18562853050108352</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -10558,7 +11706,7 @@
         <v>0.10280844017737228</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -10584,7 +11732,7 @@
         <v>5.6591919000891597E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -10610,7 +11758,7 @@
         <v>3.0801475869189746E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -10636,7 +11784,7 @@
         <v>1.6409502176716381E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -10662,7 +11810,7 @@
         <v>8.3782750393183378E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -10688,7 +11836,7 @@
         <v>3.8965680329880515E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -10714,7 +11862,7 @@
         <v>1.3956180104118905E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -10769,18 +11917,18 @@
   <dimension ref="A1:P75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -10825,7 +11973,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -10875,7 +12023,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="3">
         <f t="shared" ref="B3:C4" si="0">D2</f>
@@ -10916,7 +12064,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="3">
         <f t="shared" si="0"/>
@@ -10957,7 +12105,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -11001,68 +12149,68 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K10" s="33" t="s">
+    <row r="9" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="35"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K11" s="45" t="s">
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="51"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K11" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="47"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K12" s="48" t="s">
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="42"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K12" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="50"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K13" s="51" t="s">
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="45"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K13" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="53"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K14" s="48" t="s">
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="48"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K14" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="50"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K15" s="48" t="s">
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="45"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K15" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="50"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="45"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K16" s="54" t="s">
         <v>77</v>
       </c>
@@ -11072,7 +12220,7 @@
       <c r="O16" s="55"/>
       <c r="P16" s="56"/>
     </row>
-    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K17" s="57"/>
       <c r="L17" s="58"/>
       <c r="M17" s="58"/>
@@ -11080,48 +12228,48 @@
       <c r="O17" s="58"/>
       <c r="P17" s="59"/>
     </row>
-    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L19" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="36" t="s">
+      <c r="M19" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="36"/>
-      <c r="O19" s="37"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N19" s="52"/>
+      <c r="O19" s="53"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L20" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="M20" s="38" t="s">
+      <c r="M20" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="39"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L21" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="M21" s="38" t="s">
+      <c r="M21" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="39"/>
-    </row>
-    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N21" s="33"/>
+      <c r="O21" s="34"/>
+    </row>
+    <row r="22" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L22" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="M22" s="40" t="s">
+      <c r="M22" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="N22" s="40"/>
-      <c r="O22" s="41"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N22" s="35"/>
+      <c r="O22" s="36"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -11141,7 +12289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -11165,7 +12313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -11190,7 +12338,7 @@
         <v>9.1761506196973933E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -11215,7 +12363,7 @@
         <v>2.2865358743438216E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -11240,7 +12388,7 @@
         <v>4.3287257513586287E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -11265,7 +12413,7 @@
         <v>7.375315047162305E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -11290,7 +12438,7 @@
         <v>0.11920292202211756</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -11315,7 +12463,7 @@
         <v>0.18700601372329884</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -11340,7 +12488,7 @@
         <v>0.28815634049955691</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -11365,7 +12513,7 @@
         <v>0.43905489615886395</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -11390,7 +12538,7 @@
         <v>0.66416908832981358</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -11415,7 +12563,7 @@
         <v>0.99999999999999956</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <f>IF($A$3=2,2,)</f>
         <v>0</v>
@@ -11441,7 +12589,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" ref="A45:A53" si="8">IF($A$3=2,2,)</f>
         <v>0</v>
@@ -11467,7 +12615,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -11493,7 +12641,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -11519,7 +12667,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -11545,7 +12693,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -11571,7 +12719,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -11597,7 +12745,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -11623,7 +12771,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -11649,7 +12797,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -11675,7 +12823,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <f>IF($A$4=3,3,)</f>
         <v>0</v>
@@ -11700,7 +12848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" ref="A55:A64" si="12">IF($A$4=3,3,)</f>
         <v>0</v>
@@ -11726,7 +12874,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11752,7 +12900,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11778,7 +12926,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11804,7 +12952,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11830,7 +12978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11856,7 +13004,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11882,7 +13030,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11908,7 +13056,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11934,7 +13082,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11960,7 +13108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <f>IF($A$5=4,4,)</f>
         <v>4</v>
@@ -11986,7 +13134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" ref="A66:A75" si="15">IF($A$5=4,4,)</f>
         <v>4</v>
@@ -12012,7 +13160,7 @@
         <v>0.84945501196734519</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -12038,7 +13186,7 @@
         <v>0.71323627369762321</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -12064,7 +13212,7 @@
         <v>0.58998046227353163</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -12090,7 +13238,7 @@
         <v>0.47845399210662953</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -12116,7 +13264,7 @@
         <v>0.37754066879814552</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -12142,7 +13290,7 @@
         <v>0.28623051789026871</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -12168,7 +13316,7 @@
         <v>0.2036096767023117</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -12194,7 +13342,7 @@
         <v>0.12885124808584156</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -12220,7 +13368,7 @@
         <v>6.1207024560089175E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -12270,18 +13418,18 @@
   <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" customWidth="1"/>
     <col min="13" max="13" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -12317,7 +13465,7 @@
       </c>
       <c r="L1" s="23">
         <f>N3*N2</f>
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>37</v>
@@ -12326,7 +13474,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -12338,21 +13486,21 @@
       </c>
       <c r="D2" s="3">
         <f>N2</f>
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" s="3">
         <f>N6*N2</f>
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="G2" s="3">
         <v>10</v>
       </c>
       <c r="H2" s="1">
         <f>D2-B2</f>
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="I2" s="1">
         <f>E2-C2</f>
@@ -12360,27 +13508,27 @@
       </c>
       <c r="J2" s="8">
         <f>H2/ABS(I2)</f>
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L2" s="8">
         <f>N2+(L3-N2)+N2*N5</f>
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="N2" s="21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="3">
         <f t="shared" ref="B3:C4" si="0">D2</f>
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" si="0"/>
@@ -12400,7 +13548,7 @@
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:I5" si="1">D3-B3</f>
-        <v>-49.5</v>
+        <v>-139.5</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="1"/>
@@ -12415,7 +13563,7 @@
       </c>
       <c r="L3" s="13">
         <f>N1*N2</f>
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>35</v>
@@ -12424,13 +13572,13 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <f>L1</f>
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" si="0"/>
@@ -12438,7 +13586,7 @@
       </c>
       <c r="D4" s="3">
         <f>L3</f>
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="E4" s="3">
         <f>N4</f>
@@ -12446,14 +13594,14 @@
       </c>
       <c r="F4" s="3">
         <f>N7*N2</f>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3">
         <v>10</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
@@ -12461,7 +13609,7 @@
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:J5" si="2">H4/ABS(I4)</f>
-        <v>16.666666666666668</v>
+        <v>46.666666666666671</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>39</v>
@@ -12470,13 +13618,13 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="11">
         <f>D4</f>
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="C5" s="11">
         <f>E4</f>
@@ -12484,21 +13632,21 @@
       </c>
       <c r="D5" s="11">
         <f>L2</f>
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="E5" s="11">
         <v>0</v>
       </c>
       <c r="F5" s="11">
         <f>N8*N2</f>
-        <v>-2.5</v>
+        <v>-7</v>
       </c>
       <c r="G5" s="11">
         <v>10</v>
       </c>
       <c r="H5" s="12">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" si="1"/>
@@ -12506,7 +13654,7 @@
       </c>
       <c r="J5" s="13">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>35</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>34</v>
@@ -12515,15 +13663,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="M6" s="7" t="s">
         <v>84</v>
       </c>
       <c r="N6" s="18">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="M7" s="7" t="s">
         <v>85</v>
       </c>
@@ -12531,7 +13679,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M8" s="19" t="s">
         <v>86</v>
       </c>
@@ -12539,71 +13687,71 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K10" s="33" t="s">
+    <row r="10" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="35"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K11" s="45" t="s">
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="51"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K11" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="47"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K12" s="48" t="s">
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="42"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K12" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="50"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K13" s="51" t="s">
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="45"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K13" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="53"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K14" s="48" t="s">
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="48"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K14" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="50"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K15" s="48" t="s">
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="45"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K15" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="50"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="45"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K16" s="54" t="s">
         <v>70</v>
       </c>
@@ -12613,7 +13761,7 @@
       <c r="O16" s="55"/>
       <c r="P16" s="56"/>
     </row>
-    <row r="17" spans="11:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="11:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K17" s="57"/>
       <c r="L17" s="58"/>
       <c r="M17" s="58"/>
@@ -12621,68 +13769,68 @@
       <c r="O17" s="58"/>
       <c r="P17" s="59"/>
     </row>
-    <row r="18" spans="11:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="11:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="11:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="11:16" x14ac:dyDescent="0.2">
       <c r="L19" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="36" t="s">
+      <c r="M19" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="36"/>
-      <c r="O19" s="37"/>
-    </row>
-    <row r="20" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="N19" s="52"/>
+      <c r="O19" s="53"/>
+    </row>
+    <row r="20" spans="11:16" x14ac:dyDescent="0.2">
       <c r="L20" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="M20" s="38" t="s">
+      <c r="M20" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="39"/>
-    </row>
-    <row r="21" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+    </row>
+    <row r="21" spans="11:16" x14ac:dyDescent="0.2">
       <c r="L21" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="M21" s="38" t="s">
+      <c r="M21" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="39"/>
-    </row>
-    <row r="22" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="N21" s="33"/>
+      <c r="O21" s="34"/>
+    </row>
+    <row r="22" spans="11:16" x14ac:dyDescent="0.2">
       <c r="L22" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="M22" s="38" t="s">
+      <c r="M22" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N22" s="38"/>
-      <c r="O22" s="39"/>
-    </row>
-    <row r="23" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
+    </row>
+    <row r="23" spans="11:16" x14ac:dyDescent="0.2">
       <c r="L23" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="M23" s="38" t="s">
+      <c r="M23" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="N23" s="38"/>
-      <c r="O23" s="39"/>
-    </row>
-    <row r="24" spans="11:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
+    </row>
+    <row r="24" spans="11:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L24" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="M24" s="40" t="s">
+      <c r="M24" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="N24" s="40"/>
-      <c r="O24" s="41"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="N24" s="35"/>
+      <c r="O24" s="36"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -12702,7 +13850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -12726,7 +13874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -12736,22 +13884,22 @@
       </c>
       <c r="C36">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D36">
         <f t="shared" si="4"/>
-        <v>4.4007012308088398E-3</v>
+        <v>7.8013416127807424E-5</v>
       </c>
       <c r="E36">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F36">
         <f t="shared" si="6"/>
-        <v>4.4007012308088398E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.8013416127807424E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -12761,22 +13909,22 @@
       </c>
       <c r="C37">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D37">
         <f t="shared" si="4"/>
-        <v>1.1656230956039607E-2</v>
+        <v>2.9007586756404018E-4</v>
       </c>
       <c r="E37">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F37">
         <f t="shared" si="6"/>
-        <v>1.1656230956039607E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.9007586756404018E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -12786,22 +13934,22 @@
       </c>
       <c r="C38">
         <f t="shared" si="3"/>
-        <v>15.000000000000002</v>
+        <v>42.000000000000007</v>
       </c>
       <c r="D38">
         <f t="shared" si="4"/>
-        <v>2.3618577144224634E-2</v>
+        <v>8.6652137580163068E-4</v>
       </c>
       <c r="E38">
         <f t="shared" si="5"/>
-        <v>15.000000000000002</v>
+        <v>42.000000000000007</v>
       </c>
       <c r="F38">
         <f t="shared" si="6"/>
-        <v>2.3618577144224634E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.6652137580163068E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -12811,22 +13959,22 @@
       </c>
       <c r="C39">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D39">
         <f t="shared" si="4"/>
-        <v>4.3341151752163881E-2</v>
+        <v>2.4334627259407107E-3</v>
       </c>
       <c r="E39">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F39">
         <f t="shared" si="6"/>
-        <v>4.3341151752163881E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.4334627259407107E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -12836,22 +13984,22 @@
       </c>
       <c r="C40">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D40">
         <f t="shared" si="4"/>
-        <v>7.5858180021243546E-2</v>
+        <v>6.6928509242848546E-3</v>
       </c>
       <c r="E40">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F40">
         <f t="shared" si="6"/>
-        <v>7.5858180021243546E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.6928509242848546E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -12861,22 +14009,22 @@
       </c>
       <c r="C41">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D41">
         <f t="shared" si="4"/>
-        <v>0.1294696961884326</v>
+        <v>1.8271068464196655E-2</v>
       </c>
       <c r="E41">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="F41">
         <f t="shared" si="6"/>
-        <v>0.1294696961884326</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.8271068464196655E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -12886,22 +14034,22 @@
       </c>
       <c r="C42">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="D42">
         <f t="shared" si="4"/>
-        <v>0.21786014324776093</v>
+        <v>4.9743926808884682E-2</v>
       </c>
       <c r="E42">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="F42">
         <f t="shared" si="6"/>
-        <v>0.21786014324776093</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.9743926808884682E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -12911,22 +14059,22 @@
       </c>
       <c r="C43">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>111.99999999999999</v>
       </c>
       <c r="D43">
         <f t="shared" si="4"/>
-        <v>0.36359135344116922</v>
+        <v>0.13529602573691568</v>
       </c>
       <c r="E43">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>111.99999999999999</v>
       </c>
       <c r="F43">
         <f t="shared" si="6"/>
-        <v>0.36359135344116922</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.13529602573691568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -12936,22 +14084,22 @@
       </c>
       <c r="C44">
         <f t="shared" si="3"/>
-        <v>44.999999999999993</v>
+        <v>125.99999999999999</v>
       </c>
       <c r="D44">
         <f t="shared" si="4"/>
-        <v>0.60386149949191226</v>
+        <v>0.3678507416395127</v>
       </c>
       <c r="E44">
         <f t="shared" si="5"/>
-        <v>44.999999999999993</v>
+        <v>125.99999999999999</v>
       </c>
       <c r="F44">
         <f t="shared" si="6"/>
-        <v>0.60386149949191226</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.3678507416395127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -12961,22 +14109,22 @@
       </c>
       <c r="C45">
         <f t="shared" si="3"/>
-        <v>49.999999999999993</v>
+        <v>139.99999999999997</v>
       </c>
       <c r="D45">
         <f t="shared" si="4"/>
-        <v>0.999999999999999</v>
+        <v>0.99999999999999822</v>
       </c>
       <c r="E45">
         <f t="shared" si="5"/>
-        <v>49.999999999999993</v>
+        <v>139.99999999999997</v>
       </c>
       <c r="F45">
         <f t="shared" si="6"/>
-        <v>0.999999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.99999999999999822</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <f>IF($A$3=2,2,)</f>
         <v>0</v>
@@ -13002,7 +14150,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" ref="A47:A55" si="8">IF($A$3=2,2,)</f>
         <v>0</v>
@@ -13028,7 +14176,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -13054,7 +14202,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -13080,7 +14228,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -13106,7 +14254,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -13132,7 +14280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -13158,7 +14306,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -13184,7 +14332,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -13210,7 +14358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -13236,7 +14384,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <f>IF($A$4=3,3,)</f>
         <v>3</v>
@@ -13255,13 +14403,13 @@
       </c>
       <c r="E56">
         <f t="shared" si="10"/>
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" ref="A57:A66" si="12">IF($A$4=3,3,)</f>
         <v>3</v>
@@ -13272,7 +14420,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="3"/>
-        <v>1.666666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D57">
         <f t="shared" si="11"/>
@@ -13280,14 +14428,14 @@
       </c>
       <c r="E57">
         <f t="shared" si="10"/>
-        <v>66</v>
+        <v>184.8</v>
       </c>
       <c r="F57">
         <f t="shared" ref="F57:F77" si="13">VLOOKUP(A57,$A$2:$J$5,5)+D57*ABS(VLOOKUP(A57,$A$2:$J$5,9))</f>
         <v>0.9912188980137957</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -13298,7 +14446,7 @@
       </c>
       <c r="C58">
         <f t="shared" si="3"/>
-        <v>3.3333333333333339</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="D58">
         <f t="shared" si="11"/>
@@ -13306,14 +14454,14 @@
       </c>
       <c r="E58">
         <f t="shared" si="10"/>
-        <v>67</v>
+        <v>187.6</v>
       </c>
       <c r="F58">
         <f t="shared" si="13"/>
         <v>0.97896388297590076</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -13324,7 +14472,7 @@
       </c>
       <c r="C59">
         <f t="shared" si="3"/>
-        <v>5.0000000000000009</v>
+        <v>14.000000000000004</v>
       </c>
       <c r="D59">
         <f t="shared" si="11"/>
@@ -13332,14 +14480,14 @@
       </c>
       <c r="E59">
         <f t="shared" si="10"/>
-        <v>68</v>
+        <v>190.4</v>
       </c>
       <c r="F59">
         <f t="shared" si="13"/>
         <v>0.96186063171939784</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -13350,22 +14498,22 @@
       </c>
       <c r="C60">
         <f t="shared" si="3"/>
-        <v>6.6666666666666679</v>
+        <v>18.666666666666668</v>
       </c>
       <c r="D60">
         <f t="shared" si="11"/>
-        <v>0.89665186959408827</v>
+        <v>0.89665186959408838</v>
       </c>
       <c r="E60">
         <f t="shared" si="10"/>
-        <v>69</v>
+        <v>193.2</v>
       </c>
       <c r="F60">
         <f t="shared" si="13"/>
-        <v>0.93799112175645294</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.93799112175645305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -13376,7 +14524,7 @@
       </c>
       <c r="C61">
         <f t="shared" si="3"/>
-        <v>8.3333333333333339</v>
+        <v>23.333333333333336</v>
       </c>
       <c r="D61">
         <f t="shared" si="11"/>
@@ -13384,14 +14532,14 @@
       </c>
       <c r="E61">
         <f t="shared" si="10"/>
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="F61">
         <f t="shared" si="13"/>
         <v>0.90467853707145096</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -13402,7 +14550,7 @@
       </c>
       <c r="C62">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="D62">
         <f t="shared" si="11"/>
@@ -13410,14 +14558,14 @@
       </c>
       <c r="E62">
         <f t="shared" si="10"/>
-        <v>71</v>
+        <v>198.8</v>
       </c>
       <c r="F62">
         <f t="shared" si="13"/>
         <v>0.85818707997332955</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -13428,22 +14576,22 @@
       </c>
       <c r="C63">
         <f t="shared" si="3"/>
-        <v>11.666666666666666</v>
+        <v>32.666666666666671</v>
       </c>
       <c r="D63">
         <f t="shared" si="11"/>
-        <v>0.65550504131139087</v>
+        <v>0.65550504131139065</v>
       </c>
       <c r="E63">
         <f t="shared" si="10"/>
-        <v>72</v>
+        <v>201.6</v>
       </c>
       <c r="F63">
         <f t="shared" si="13"/>
         <v>0.79330302478683445</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -13454,22 +14602,22 @@
       </c>
       <c r="C64">
         <f t="shared" si="3"/>
-        <v>13.333333333333334</v>
+        <v>37.333333333333336</v>
       </c>
       <c r="D64">
         <f t="shared" si="11"/>
-        <v>0.50458338529765046</v>
+        <v>0.50458338529765057</v>
       </c>
       <c r="E64">
         <f t="shared" si="10"/>
-        <v>73</v>
+        <v>204.4</v>
       </c>
       <c r="F64">
         <f t="shared" si="13"/>
         <v>0.70275003117859036</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -13480,7 +14628,7 @@
       </c>
       <c r="C65">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D65">
         <f t="shared" si="11"/>
@@ -13488,14 +14636,14 @@
       </c>
       <c r="E65">
         <f t="shared" si="10"/>
-        <v>74</v>
+        <v>207.2</v>
       </c>
       <c r="F65">
         <f t="shared" si="13"/>
         <v>0.5763731481701837</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -13506,22 +14654,22 @@
       </c>
       <c r="C66">
         <f t="shared" si="3"/>
-        <v>16.666666666666664</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="D66">
         <f t="shared" si="11"/>
-        <v>6.907765736685848E-16</v>
+        <v>5.756471447238207E-16</v>
       </c>
       <c r="E66">
         <f t="shared" si="10"/>
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="F66">
         <f t="shared" si="13"/>
-        <v>0.40000000000000041</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.40000000000000036</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <f>IF($A$5=4,4,)</f>
         <v>4</v>
@@ -13540,14 +14688,14 @@
       </c>
       <c r="E67">
         <f t="shared" si="10"/>
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="F67">
         <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" ref="A68:A77" si="15">IF($A$5=4,4,)</f>
         <v>4</v>
@@ -13558,7 +14706,7 @@
       </c>
       <c r="C68">
         <f t="shared" si="3"/>
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="D68">
         <f t="shared" si="11"/>
@@ -13566,14 +14714,14 @@
       </c>
       <c r="E68">
         <f t="shared" si="10"/>
-        <v>75.5</v>
+        <v>211.4</v>
       </c>
       <c r="F68">
         <f t="shared" si="13"/>
         <v>0.2415445997967651</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -13584,7 +14732,7 @@
       </c>
       <c r="C69">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="D69">
         <f t="shared" si="11"/>
@@ -13592,14 +14740,14 @@
       </c>
       <c r="E69">
         <f t="shared" si="10"/>
-        <v>76</v>
+        <v>212.8</v>
       </c>
       <c r="F69">
         <f t="shared" si="13"/>
         <v>0.14543654137646769</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -13610,7 +14758,7 @@
       </c>
       <c r="C70">
         <f t="shared" si="3"/>
-        <v>3.7500000000000004</v>
+        <v>10.500000000000002</v>
       </c>
       <c r="D70">
         <f t="shared" si="11"/>
@@ -13618,14 +14766,14 @@
       </c>
       <c r="E70">
         <f t="shared" si="10"/>
-        <v>76.5</v>
+        <v>214.2</v>
       </c>
       <c r="F70">
         <f t="shared" si="13"/>
         <v>8.7144057299104377E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -13636,7 +14784,7 @@
       </c>
       <c r="C71">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D71">
         <f t="shared" si="11"/>
@@ -13644,14 +14792,14 @@
       </c>
       <c r="E71">
         <f t="shared" si="10"/>
-        <v>77</v>
+        <v>215.6</v>
       </c>
       <c r="F71">
         <f t="shared" si="13"/>
         <v>5.1787878475373042E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -13662,7 +14810,7 @@
       </c>
       <c r="C72">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>17.5</v>
       </c>
       <c r="D72">
         <f t="shared" si="11"/>
@@ -13670,14 +14818,14 @@
       </c>
       <c r="E72">
         <f t="shared" si="10"/>
-        <v>77.5</v>
+        <v>217</v>
       </c>
       <c r="F72">
         <f t="shared" si="13"/>
         <v>3.0343272008497419E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -13688,7 +14836,7 @@
       </c>
       <c r="C73">
         <f t="shared" si="3"/>
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="D73">
         <f t="shared" si="11"/>
@@ -13696,14 +14844,14 @@
       </c>
       <c r="E73">
         <f t="shared" si="10"/>
-        <v>78</v>
+        <v>218.4</v>
       </c>
       <c r="F73">
         <f t="shared" si="13"/>
         <v>1.7336460700865555E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -13714,7 +14862,7 @@
       </c>
       <c r="C74">
         <f t="shared" si="3"/>
-        <v>8.75</v>
+        <v>24.5</v>
       </c>
       <c r="D74">
         <f t="shared" si="11"/>
@@ -13722,14 +14870,14 @@
       </c>
       <c r="E74">
         <f t="shared" si="10"/>
-        <v>78.5</v>
+        <v>219.8</v>
       </c>
       <c r="F74">
         <f t="shared" si="13"/>
         <v>9.4474308576898529E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -13740,22 +14888,22 @@
       </c>
       <c r="C75">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>27.999999999999996</v>
       </c>
       <c r="D75">
         <f t="shared" si="11"/>
-        <v>1.1656230956039607E-2</v>
+        <v>1.1656230956039616E-2</v>
       </c>
       <c r="E75">
         <f t="shared" si="10"/>
-        <v>79</v>
+        <v>221.2</v>
       </c>
       <c r="F75">
         <f t="shared" si="13"/>
-        <v>4.6624923824158428E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.6624923824158462E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -13766,22 +14914,22 @@
       </c>
       <c r="C76">
         <f t="shared" si="3"/>
-        <v>11.249999999999998</v>
+        <v>31.499999999999996</v>
       </c>
       <c r="D76">
         <f t="shared" si="11"/>
-        <v>4.4007012308088476E-3</v>
+        <v>4.4007012308088459E-3</v>
       </c>
       <c r="E76">
         <f t="shared" si="10"/>
-        <v>79.5</v>
+        <v>222.6</v>
       </c>
       <c r="F76">
         <f t="shared" si="13"/>
-        <v>1.7602804923235391E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.7602804923235384E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -13792,19 +14940,19 @@
       </c>
       <c r="C77">
         <f t="shared" si="3"/>
-        <v>12.499999999999998</v>
+        <v>34.999999999999993</v>
       </c>
       <c r="D77">
         <f t="shared" si="11"/>
-        <v>4.5188219208542196E-18</v>
+        <v>7.5313698680903671E-18</v>
       </c>
       <c r="E77">
         <f t="shared" si="10"/>
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="F77">
         <f t="shared" si="13"/>
-        <v>1.8075287683416878E-18</v>
+        <v>3.0125479472361471E-18</v>
       </c>
     </row>
   </sheetData>
@@ -13829,6 +14977,1578 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4772624-7F70-1248-BDA9-9A00372E8714}">
+  <dimension ref="A1:P74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="64">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <f>M1</f>
+        <v>134</v>
+      </c>
+      <c r="E2" s="3">
+        <f>M8</f>
+        <v>0.9</v>
+      </c>
+      <c r="F2" s="3">
+        <f>-(M4*(D2-B2))</f>
+        <v>-9.3800000000000008</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
+        <f>D2-B2</f>
+        <v>134</v>
+      </c>
+      <c r="I2" s="1">
+        <f>E2-C2</f>
+        <v>0.9</v>
+      </c>
+      <c r="J2" s="8">
+        <f>H2/ABS(I2)</f>
+        <v>148.88888888888889</v>
+      </c>
+      <c r="K2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="64">
+        <f>M10</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <f t="shared" ref="B3:C5" si="0">D2</f>
+        <v>134</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="D3" s="3">
+        <f>M2</f>
+        <v>150</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <f>(M5*(D3-B3))</f>
+        <v>8</v>
+      </c>
+      <c r="G3" s="3">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:I5" si="1">D3-B3</f>
+        <v>16</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="J3" s="8">
+        <f t="shared" ref="J3:J5" si="2">H3/ABS(I3)</f>
+        <v>160.00000000000003</v>
+      </c>
+      <c r="K3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="64">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <f>M3</f>
+        <v>210</v>
+      </c>
+      <c r="E4" s="3">
+        <f>M9</f>
+        <v>0.95</v>
+      </c>
+      <c r="F4" s="3">
+        <f>(M6*(D4-B4))</f>
+        <v>36</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="J4" s="8">
+        <f t="shared" si="2"/>
+        <v>1199.9999999999989</v>
+      </c>
+      <c r="L4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M4" s="65">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="C5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+      <c r="D5" s="11">
+        <f>M3*1.05</f>
+        <v>220.5</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" ref="F5" si="3">-(M7*(D5-B5))</f>
+        <v>-2.1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>10</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" si="1"/>
+        <v>-0.95</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" si="2"/>
+        <v>11.052631578947368</v>
+      </c>
+      <c r="L5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="65">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="65">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="65">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="65">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="65">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="65">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" s="50" t="str">
+        <f>"Quota_Direct|" &amp; M4 &amp; ", " &amp; M5 &amp; ", " &amp; M6 &amp; ", " &amp;M7 &amp; ", " &amp;M8 &amp; ", " &amp;M9 &amp; ", " &amp;M10</f>
+        <v>Quota_Direct|0.07, 0.5, 0.6, 0.2, 0.9, 0.95, 150</v>
+      </c>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="51"/>
+    </row>
+    <row r="14" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K15" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="42"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K16" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="45"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K17" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="48"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K18" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="45"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K19" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="45"/>
+    </row>
+    <row r="20" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="39"/>
+    </row>
+    <row r="21" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L22" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="52"/>
+      <c r="O22" s="53"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L23" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L24" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="33"/>
+      <c r="O24" s="34"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L25" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="33"/>
+      <c r="O25" s="34"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L26" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="33"/>
+      <c r="O26" s="34"/>
+    </row>
+    <row r="27" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="35"/>
+      <c r="O27" s="36"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:C74" si="4">B32*VLOOKUP(A32,$A$2:$J$5,10)</f>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:D52" si="5">(1 - EXP(-(C32 - 0)/VLOOKUP(A32,$A$2:$J$5,6)))/(1 - EXP(-(VLOOKUP(A32,$A$2:$J$5,10) - 0)/VLOOKUP(A32,$A$2:$J$5,6)))</f>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32:E51" si="6">VLOOKUP(A32,$A$2:$J$5,2) + C32 *VLOOKUP(A32,$A$2:$J$5,9)</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:F52" si="7">VLOOKUP(A32,$A$2:$J$5,3)+D32*VLOOKUP(A32,$A$2:$J$5,9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <f>B32+0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="4"/>
+        <v>14.888888888888889</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="5"/>
+        <v>4.9710269013524457E-7</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="6"/>
+        <v>13.4</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="7"/>
+        <v>4.4739242112172015E-7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:B42" si="8">B33+0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>29.777777777777779</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="5"/>
+        <v>2.9282005100238022E-6</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="6"/>
+        <v>26.8</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="7"/>
+        <v>2.635380459021422E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="8"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>44.666666666666671</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>1.481756809372955E-5</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="6"/>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="7"/>
+        <v>1.3335811284356596E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>59.555555555555557</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="5"/>
+        <v>7.2962929577765929E-5</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="6"/>
+        <v>53.6</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="7"/>
+        <v>6.5666636619989341E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>74.444444444444443</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="5"/>
+        <v>3.5732482168906088E-4</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="7"/>
+        <v>3.2159233952015482E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>89.333333333333329</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="5"/>
+        <v>1.7480064448021271E-3</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="6"/>
+        <v>80.399999999999991</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="7"/>
+        <v>1.5732058003219145E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="8"/>
+        <v>0.7</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="4"/>
+        <v>104.22222222222221</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="5"/>
+        <v>8.5491827997106751E-3</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="6"/>
+        <v>93.8</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="7"/>
+        <v>7.6942645197396074E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="8"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="4"/>
+        <v>119.1111111111111</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="5"/>
+        <v>4.1810569907870063E-2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="6"/>
+        <v>107.19999999999999</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="7"/>
+        <v>3.7629512917083059E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="8"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="4"/>
+        <v>133.99999999999997</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="5"/>
+        <v>0.20447652865195928</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="6"/>
+        <v>120.59999999999998</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="7"/>
+        <v>0.18402887578676336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="8"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="4"/>
+        <v>148.88888888888886</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999645</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="6"/>
+        <v>133.99999999999997</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="7"/>
+        <v>0.8999999999999968</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f>IF($A$3=2,2,)</f>
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <f>IF(ISBLANK(A43),,0.1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="4"/>
+        <v>16.000000000000004</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="5"/>
+        <v>0.86466471854559424</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="6"/>
+        <v>135.6</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="7"/>
+        <v>0.98646647185455938</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" ref="A44:A52" si="9">IF($A$3=2,2,)</f>
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <f>IF(ISBLANK(A44),,B43+0.1)</f>
+        <v>0.2</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="4"/>
+        <v>32.000000000000007</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="5"/>
+        <v>0.981684363134668</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="6"/>
+        <v>137.19999999999999</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="7"/>
+        <v>0.99816843631346686</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45:B52" si="10">IF(ISBLANK(A45),,B44+0.1)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="4"/>
+        <v>48.000000000000014</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="5"/>
+        <v>0.99752124987937807</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="6"/>
+        <v>138.80000000000001</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="7"/>
+        <v>0.99975212498793775</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="4"/>
+        <v>64.000000000000014</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="5"/>
+        <v>0.99966453943255962</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="6"/>
+        <v>140.4</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="7"/>
+        <v>0.99996645394325601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="4"/>
+        <v>80.000000000000014</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="5"/>
+        <v>0.9999546021312975</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="6"/>
+        <v>142</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="7"/>
+        <v>0.99999546021312979</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="4"/>
+        <v>96.000000000000014</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="5"/>
+        <v>0.99999385784878758</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="6"/>
+        <v>143.6</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="7"/>
+        <v>0.99999938578487879</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="10"/>
+        <v>0.7</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="4"/>
+        <v>112.00000000000001</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="5"/>
+        <v>0.99999917053243281</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="6"/>
+        <v>145.19999999999999</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="7"/>
+        <v>0.99999991705324331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="10"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="5"/>
+        <v>0.99999988952597862</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="6"/>
+        <v>146.80000000000001</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="7"/>
+        <v>0.9999999889525979</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="10"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="5"/>
+        <v>0.99999998683117386</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="6"/>
+        <v>148.4</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="7"/>
+        <v>0.9999999986831174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="10"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ref="E52:E74" si="11">VLOOKUP(A52,$A$2:$J$5,2) + C52 *ABS(VLOOKUP(A52,$A$2:$J$5,9))</f>
+        <v>150</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f>IF($A$4=3,3,)</f>
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <f>IF(ISBLANK(A53),,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:D74" si="12">(1 - EXP(-(VLOOKUP(A53,$A$2:$J$5,10) - C53)/VLOOKUP(A53,$A$2:$J$5,6)))/(1 - EXP(-(VLOOKUP(A53,$A$2:$J$5,10) - 0)/VLOOKUP(A53,$A$2:$J$5,6)))</f>
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" ref="A54:A63" si="13">IF($A$4=3,3,)</f>
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <f>IF(ISBLANK(A54),,0.1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="4"/>
+        <v>119.99999999999989</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="12"/>
+        <v>0.99999999999990974</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="11"/>
+        <v>156</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ref="F54:F74" si="14">VLOOKUP(A54,$A$2:$J$5,5)+D54*ABS(VLOOKUP(A54,$A$2:$J$5,9))</f>
+        <v>0.99999999999999545</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <f>IF(ISBLANK(A55),,B54+0.1)</f>
+        <v>0.2</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="4"/>
+        <v>239.99999999999977</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="12"/>
+        <v>0.99999999999738021</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="11"/>
+        <v>162</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="14"/>
+        <v>0.99999999999986899</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56:B63" si="15">IF(ISBLANK(A56),,B55+0.1)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="4"/>
+        <v>359.99999999999972</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="12"/>
+        <v>0.9999999999264737</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="11"/>
+        <v>168</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="14"/>
+        <v>0.99999999999632372</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="15"/>
+        <v>0.4</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="4"/>
+        <v>479.99999999999955</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="12"/>
+        <v>0.99999999793884975</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="11"/>
+        <v>174</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="14"/>
+        <v>0.99999999989694244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="15"/>
+        <v>0.5</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="4"/>
+        <v>599.99999999999943</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="12"/>
+        <v>0.99999994222251809</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="11"/>
+        <v>180</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="14"/>
+        <v>0.99999999711112586</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="15"/>
+        <v>0.6</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="4"/>
+        <v>719.99999999999932</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="12"/>
+        <v>0.99999838040321098</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="11"/>
+        <v>186</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="14"/>
+        <v>0.9999999190201605</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="15"/>
+        <v>0.7</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="4"/>
+        <v>839.9999999999992</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="12"/>
+        <v>0.99995460007024084</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="11"/>
+        <v>192</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="14"/>
+        <v>0.999997730003512</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="15"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="4"/>
+        <v>959.99999999999898</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="12"/>
+        <v>0.99872736619866354</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="11"/>
+        <v>198</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="14"/>
+        <v>0.99993636830993315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="15"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="4"/>
+        <v>1079.9999999999989</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="12"/>
+        <v>0.96432600665275081</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="11"/>
+        <v>204</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="14"/>
+        <v>0.99821630033263753</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="15"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="4"/>
+        <v>1199.9999999999986</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="12"/>
+        <v>6.3282712403634136E-15</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="11"/>
+        <v>210</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="14"/>
+        <v>0.95000000000000029</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f>IF($A$5=4,4,)</f>
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <f>IF(ISBLANK(A64),,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="11"/>
+        <v>210</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="14"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f t="shared" ref="A65:A74" si="16">IF($A$5=4,4,)</f>
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <f>IF(ISBLANK(A65),,0.1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="4"/>
+        <v>1.1052631578947369</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="12"/>
+        <v>0.58864714859417122</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="11"/>
+        <v>211.05</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="14"/>
+        <v>0.5592147911644626</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <f>IF(ISBLANK(A66),,B65+0.1)</f>
+        <v>0.2</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="4"/>
+        <v>2.2105263157894739</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="12"/>
+        <v>0.34562913370445286</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="11"/>
+        <v>212.1</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="14"/>
+        <v>0.32834767701923018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B74" si="17">IF(ISBLANK(A67),,B66+0.1)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="4"/>
+        <v>3.3157894736842111</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="12"/>
+        <v>0.20205955503469247</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="11"/>
+        <v>213.15</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="14"/>
+        <v>0.19195657728295784</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="17"/>
+        <v>0.4</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="4"/>
+        <v>4.4210526315789478</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="12"/>
+        <v>0.11724187627632419</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="11"/>
+        <v>214.2</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="14"/>
+        <v>0.11137978246250797</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="4"/>
+        <v>5.5263157894736841</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="12"/>
+        <v>6.7133498884582088E-2</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="11"/>
+        <v>215.25</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="14"/>
+        <v>6.3776823940352986E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="4"/>
+        <v>6.6315789473684204</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="12"/>
+        <v>3.7530596263464014E-2</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="11"/>
+        <v>216.3</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="14"/>
+        <v>3.565406645029081E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="17"/>
+        <v>0.7</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="4"/>
+        <v>7.7368421052631575</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="12"/>
+        <v>2.0041867048699598E-2</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="11"/>
+        <v>217.35</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="14"/>
+        <v>1.9039773696264618E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="17"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="4"/>
+        <v>8.8421052631578938</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="12"/>
+        <v>9.709919081909239E-3</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="11"/>
+        <v>218.4</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="14"/>
+        <v>9.2244231278137759E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="17"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="4"/>
+        <v>9.9473684210526301</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="12"/>
+        <v>3.6060365483319484E-3</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="11"/>
+        <v>219.45</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="14"/>
+        <v>3.425734720915351E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="17"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="4"/>
+        <v>11.052631578947366</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="12"/>
+        <v>4.6237549403683259E-18</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="11"/>
+        <v>220.5</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="14"/>
+        <v>4.3925671933499095E-18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="K19:P19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8673E9-EEF1-4C23-8AE4-1EAE86972459}">
   <dimension ref="A1:P75"/>
   <sheetViews>
@@ -13836,13 +16556,13 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -13880,7 +16600,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="3">
         <v>0</v>
@@ -13921,7 +16641,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="3">
         <f t="shared" ref="B3:C4" si="0">D2</f>
@@ -13956,7 +16676,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="3">
         <f t="shared" si="0"/>
@@ -13991,7 +16711,7 @@
         <v>0.50000000000000056</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -14028,38 +16748,38 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K10" s="33" t="s">
+    <row r="9" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="35"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K11" s="45" t="s">
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="51"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K11" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="47"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K12" s="48" t="s">
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="42"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K12" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="50"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="45"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K13" s="60">
         <v>0.3</v>
       </c>
@@ -14069,58 +16789,58 @@
       <c r="O13" s="61"/>
       <c r="P13" s="62"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K14" s="48" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K14" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="50"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K15" s="48" t="s">
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="45"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K15" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="50"/>
-    </row>
-    <row r="16" spans="1:16" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K16" s="42" t="s">
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="45"/>
+    </row>
+    <row r="16" spans="1:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="44"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="39"/>
+    </row>
+    <row r="18" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L19" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="36" t="s">
+      <c r="M19" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="36"/>
-      <c r="O19" s="37"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N19" s="52"/>
+      <c r="O19" s="53"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L20" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="M20" s="38" t="s">
+      <c r="M20" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="39"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -14140,7 +16860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -14164,7 +16884,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -14189,7 +16909,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -14214,7 +16934,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -14239,7 +16959,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -14264,7 +16984,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -14289,7 +17009,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -14314,7 +17034,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -14339,7 +17059,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -14364,7 +17084,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -14389,7 +17109,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -14414,7 +17134,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <f>IF($A$3=2,2,)</f>
         <v>0</v>
@@ -14440,7 +17160,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" ref="A45:A53" si="8">IF($A$3=2,2,)</f>
         <v>0</v>
@@ -14466,7 +17186,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -14492,7 +17212,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -14518,7 +17238,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -14544,7 +17264,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -14570,7 +17290,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -14596,7 +17316,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -14622,7 +17342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -14648,7 +17368,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -14674,7 +17394,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <f>IF($A$4=3,3,)</f>
         <v>0</v>
@@ -14699,7 +17419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" ref="A55:A64" si="12">IF($A$4=3,3,)</f>
         <v>0</v>
@@ -14725,7 +17445,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -14751,7 +17471,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -14777,7 +17497,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -14803,7 +17523,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -14829,7 +17549,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -14855,7 +17575,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -14881,7 +17601,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -14907,7 +17627,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -14933,7 +17653,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -14959,7 +17679,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <f>IF($A$5=4,4,)</f>
         <v>4</v>
@@ -14985,7 +17705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" ref="A66:A75" si="15">IF($A$5=4,4,)</f>
         <v>4</v>
@@ -15011,7 +17731,7 @@
         <v>0.76954155767340637</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -15037,7 +17757,7 @@
         <v>0.58704392172074971</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -15063,7 +17783,7 @@
         <v>0.4425259479287128</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -15089,7 +17809,7 @@
         <v>0.3280836723346664</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -15115,7 +17835,7 @@
         <v>0.23745802834390253</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -15141,7 +17861,7 @@
         <v>0.16569252642506482</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -15167,7 +17887,7 @@
         <v>0.10886217423261509</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -15193,7 +17913,7 @@
         <v>6.3858811280169459E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -15219,7 +17939,7 @@
         <v>2.8221117708060506E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -15262,7 +17982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6BD775-A779-4FEA-A388-82E5DB7C737F}">
   <dimension ref="A1:P75"/>
   <sheetViews>
@@ -15270,13 +17990,13 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -15314,7 +18034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -15357,7 +18077,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="3">
         <f t="shared" ref="B3:C4" si="0">D2</f>
@@ -15392,7 +18112,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="3">
         <f t="shared" si="0"/>
@@ -15427,7 +18147,7 @@
         <v>0.50000000000000056</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="11">
         <f>M1</f>
@@ -15463,38 +18183,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K10" s="33" t="s">
+    <row r="9" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="35"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K11" s="45" t="s">
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="51"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K11" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="47"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K12" s="48" t="s">
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="42"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K12" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="50"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="45"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K13" s="60">
         <v>0.3</v>
       </c>
@@ -15504,58 +18224,58 @@
       <c r="O13" s="61"/>
       <c r="P13" s="62"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K14" s="48" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K14" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="50"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K15" s="48" t="s">
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="45"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K15" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="50"/>
-    </row>
-    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K16" s="42" t="s">
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="45"/>
+    </row>
+    <row r="16" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="44"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="39"/>
+    </row>
+    <row r="18" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L19" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="36" t="s">
+      <c r="M19" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="36"/>
-      <c r="O19" s="37"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N19" s="52"/>
+      <c r="O19" s="53"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L20" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="M20" s="38" t="s">
+      <c r="M20" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="39"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -15575,7 +18295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -15599,7 +18319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -15624,7 +18344,7 @@
         <v>4.4007012308088398E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -15649,7 +18369,7 @@
         <v>1.1656230956039607E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -15674,7 +18394,7 @@
         <v>2.3618577144224634E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -15699,7 +18419,7 @@
         <v>4.3341151752163881E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -15724,7 +18444,7 @@
         <v>7.5858180021243546E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -15749,7 +18469,7 @@
         <v>0.12946969618843251</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -15774,7 +18494,7 @@
         <v>0.21786014324776085</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -15799,7 +18519,7 @@
         <v>0.36359135344116905</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -15824,7 +18544,7 @@
         <v>0.60386149949191226</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -15849,7 +18569,7 @@
         <v>0.999999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <f>IF($A$3=2,2,)</f>
         <v>0</v>
@@ -15875,7 +18595,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" ref="A45:A53" si="8">IF($A$3=2,2,)</f>
         <v>0</v>
@@ -15901,7 +18621,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -15927,7 +18647,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -15953,7 +18673,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -15979,7 +18699,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -16005,7 +18725,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -16031,7 +18751,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -16057,7 +18777,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -16083,7 +18803,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -16109,7 +18829,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <f>IF($A$4=3,3,)</f>
         <v>0</v>
@@ -16134,7 +18854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" ref="A55:A64" si="12">IF($A$4=3,3,)</f>
         <v>0</v>
@@ -16160,7 +18880,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -16186,7 +18906,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -16212,7 +18932,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -16238,7 +18958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -16264,7 +18984,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -16290,7 +19010,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -16316,7 +19036,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -16342,7 +19062,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -16368,7 +19088,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -16394,7 +19114,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <f>IF($A$5=4,4,)</f>
         <v>0</v>
@@ -16420,7 +19140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" ref="A66:A75" si="15">IF($A$5=4,4,)</f>
         <v>0</v>
@@ -16446,7 +19166,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -16472,7 +19192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -16498,7 +19218,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -16524,7 +19244,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -16550,7 +19270,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -16576,7 +19296,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -16602,7 +19322,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -16628,7 +19348,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -16654,7 +19374,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="15"/>
         <v>0</v>
